--- a/inst/app/www/model_dashboardr.xlsx
+++ b/inst/app/www/model_dashboardr.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -199,30 +199,9 @@
     <t>infobox6</t>
   </si>
   <si>
-    <t>ambulance</t>
-  </si>
-  <si>
-    <t>infobox7</t>
-  </si>
-  <si>
     <t>danger</t>
   </si>
   <si>
-    <t>infobox8</t>
-  </si>
-  <si>
-    <t>infobox9</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>infobox10</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>Info Box</t>
   </si>
   <si>
@@ -256,18 +235,6 @@
     <t>Titre 6</t>
   </si>
   <si>
-    <t>Titre 7</t>
-  </si>
-  <si>
-    <t>Titre 8</t>
-  </si>
-  <si>
-    <t>Titre 9</t>
-  </si>
-  <si>
-    <t>Titre 10</t>
-  </si>
-  <si>
     <t>glyphicon</t>
   </si>
   <si>
@@ -301,29 +268,85 @@
     <t>r$mtcars</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Footer</t>
-  </si>
-  <si>
     <t>100px</t>
+  </si>
+  <si>
+    <t>infobox_value_suffix</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>infobox_delta_suffix</t>
+  </si>
+  <si>
+    <t>%r% " depuis hier"</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>iris</t>
+  </si>
+  <si>
+    <t>Tab 1</t>
+  </si>
+  <si>
+    <t>Tab footer 1</t>
+  </si>
+  <si>
+    <t>mod_ui</t>
+  </si>
+  <si>
+    <t>mod_server</t>
+  </si>
+  <si>
+    <t>300px</t>
+  </si>
+  <si>
+    <t>module1</t>
+  </si>
+  <si>
+    <t>counterButton(ns("counter1"), "Counter")</t>
+  </si>
+  <si>
+    <t>counterServer("counter1")</t>
+  </si>
+  <si>
+    <t>nav</t>
+  </si>
+  <si>
+    <t>title1</t>
+  </si>
+  <si>
+    <t>title2</t>
+  </si>
+  <si>
+    <t>essai</t>
+  </si>
+  <si>
+    <t>prout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,10 +369,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" style="1" customWidth="1"/>
@@ -668,7 +700,7 @@
     <col min="28" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>26</v>
@@ -751,7 +783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -759,13 +791,13 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -779,17 +811,23 @@
       <c r="M2" s="1">
         <v>2</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="V2" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -797,13 +835,13 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1">
         <v>2</v>
@@ -818,16 +856,16 @@
         <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -835,13 +873,13 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -856,16 +894,16 @@
         <v>2</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -873,13 +911,13 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1">
         <v>4</v>
@@ -894,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -911,13 +949,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I6" s="1">
         <v>5</v>
@@ -932,16 +970,16 @@
         <v>2</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -949,13 +987,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1">
         <v>6</v>
@@ -970,42 +1008,101 @@
         <v>2</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
+        <v>12</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1">
         <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1016,320 +1113,239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="18.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="57.6">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1">
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>56</v>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1339,28 +1355,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1403,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1390,7 +1417,7 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1398,14 +1425,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>